--- a/shop.xlsx
+++ b/shop.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="9660" windowHeight="5520" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="File" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,12 @@
     <sheet name="Table" sheetId="3" r:id="rId3"/>
     <sheet name="Todo" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -830,8 +834,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1226,16 +1230,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1549,18 +1553,23 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
@@ -1725,23 +1734,30 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -2225,18 +2241,23 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -2279,5 +2300,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>